--- a/mahofmahof/evidence.xlsx
+++ b/mahofmahof/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="43">
   <si>
     <t>TxHash</t>
   </si>
@@ -145,9 +145,6 @@
     <t>15DBF0BF321406C6D1F45B2196CDF00CE75E356E45D552525D6A84A19549AD98</t>
   </si>
   <si>
-    <t>gon-irishub-1</t>
-  </si>
-  <si>
     <t>3841FF81EAA9EAA672AE16FAC9E43AD5BED81D8E42B91788FC7C6A01D8C2319E</t>
   </si>
   <si>
@@ -164,6 +161,12 @@
   </si>
   <si>
     <t>DF81A01F68852820610B1DE7F5637D9A86954CFBF6FA567467E9A5169584C43D</t>
+  </si>
+  <si>
+    <t>uni6</t>
+  </si>
+  <si>
+    <t>juno1wrq62rjy9w07lxz683kdsrrpqa2mnpkf2dd7hm4zhzh4pld76ems2w3rcx</t>
   </si>
 </sst>
 </file>
@@ -1349,13 +1352,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1397,16 +1400,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1472,8 +1475,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,16 +1502,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1523,8 +1526,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,13 +1557,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/mahofmahof/evidence.xlsx
+++ b/mahofmahof/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="89">
   <si>
     <t>TxHash</t>
   </si>
@@ -58,21 +58,12 @@
     <t>chain id</t>
   </si>
   <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -163,10 +154,157 @@
     <t>DF81A01F68852820610B1DE7F5637D9A86954CFBF6FA567467E9A5169584C43D</t>
   </si>
   <si>
-    <t>uni6</t>
-  </si>
-  <si>
     <t>juno1wrq62rjy9w07lxz683kdsrrpqa2mnpkf2dd7hm4zhzh4pld76ems2w3rcx</t>
+  </si>
+  <si>
+    <t>ibc/15D2F3F2C0FBB2C4FDB79DCA0AC51B2BF09402027281DF9F4E8167458BF2C44F</t>
+  </si>
+  <si>
+    <t>england1</t>
+  </si>
+  <si>
+    <t>ibc/819E8D906D22FC2464641F95CD81B0BED3AEA6D9FE634361F8B0F861FC89AD2A</t>
+  </si>
+  <si>
+    <t>portugal</t>
+  </si>
+  <si>
+    <t>italy</t>
+  </si>
+  <si>
+    <t>ibc/B5BCBE035BE65F72B39927B911D64AE508E0563960B94D5401041EB11E24C555</t>
+  </si>
+  <si>
+    <t>ibc/5E99F5440D4DDECDAE3E44D2F8B4D42E6F895A9814A71CAD32E465E5017D3293</t>
+  </si>
+  <si>
+    <t>swiss10a</t>
+  </si>
+  <si>
+    <t>ibc/6BC6F79CFB0400DE626361CCC85649767FD7E94C491B45DE5E89F20FA41D0531</t>
+  </si>
+  <si>
+    <t>swiss10a1</t>
+  </si>
+  <si>
+    <t>ibc/E7EEC50B47A66A43ED1EF2C937D6F6B278D4A11DADDDACDDB7828FEE20FCBBE1</t>
+  </si>
+  <si>
+    <t>crack12a</t>
+  </si>
+  <si>
+    <t>FDAF9BAAA076AA5B1825F7E1769E81CE90FF043BE70A816A1739F136E356BA62</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>9A784E64806961219EF870CE3130EABAFE1DF3DEC884D597AFE589B36F533909</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>8611F4C7365F8CCA2C8DAE113927EFFB85181AC4457A064FB77E84949990D067</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>1BABDAB50AA79B8E9131232AD6F50714B21482DA957EB5F9B6C10FE14DC07CE</t>
+  </si>
+  <si>
+    <t>2E53A0E808F080E5D39F35E6F3D3147F34A20022568A9DC10235E36B8BABB5A2</t>
+  </si>
+  <si>
+    <t>DB67B84C887EDEDA2A3196E2BAA793EC66F8B8FEB75441961DA71829CCDB6F51</t>
+  </si>
+  <si>
+    <t>244D2C8BD9681A67999BDB8EF83CB44FF97F8EC10E71345B6FA21394D7586BAD</t>
+  </si>
+  <si>
+    <t>75E94438034124224CF559E482A8CF709D98EDA9FE059F876BD90F7932405984</t>
+  </si>
+  <si>
+    <t>768B42A2348F08EA389DE0474004D54CEB99341DD40E2A87B62BCA4994C39E35</t>
+  </si>
+  <si>
+    <t>351A14F28F1738E66919970CFF0F9EA43A75EC56521A635CCECAF7FC9D891F68</t>
+  </si>
+  <si>
+    <t>397269F9138EF5FD0A96C084FA880DF8689B862EC9321D0B66FF0C6C72E4CB24</t>
+  </si>
+  <si>
+    <t>F5664E27AE2773E8535ADDD530E6200C42C0081A2B18F21E6917CD5B7A443913</t>
+  </si>
+  <si>
+    <t>90E9F42DDB1AAD3FA9F830857AD31150461BF4FBC8C89B5AA671F482C983A024</t>
+  </si>
+  <si>
+    <t>842544E568E8838F189C40B8069D853F007F63BAC97EC25B1656874DF4000CC6</t>
+  </si>
+  <si>
+    <t>AEAF00E88999242567A4A1962538EE1C2BB45A0D718B1F1C515013B40D3659DE</t>
+  </si>
+  <si>
+    <t>456E8DCD9EC280028823249C1CBDF6E35B8A720C95C541D8A50B270CDA7CCC9C</t>
+  </si>
+  <si>
+    <t>E47602F40BCA63EA3838E0FCEE357443B8D2E480ABC85D9272B7881A5762DC12</t>
+  </si>
+  <si>
+    <t>56A7EA19BDBC8E5000CE996393404B040CA60AD94FF3ADB829E4F4424BBF6E37</t>
+  </si>
+  <si>
+    <t>9479D8943FE4FA673AF4031DBBA09A04A23C128837C2CF9E0F2A4DE403DA19C2</t>
+  </si>
+  <si>
+    <t>77FB18BAA385B9B2A3700F6655E01394D6621F515F0A166DAB8D0EC63BDD59CC</t>
+  </si>
+  <si>
+    <t>1D0B663042B7CE80B9EA5A4337F153B8ED9952969A4C765AD6B91BE56B4F02E1</t>
+  </si>
+  <si>
+    <t>C10D85D2D18AB42EB1DA8CCFB7A9B8CA2EC07E7C37FD0FA0C7B7CBA8B2BEB0BD</t>
+  </si>
+  <si>
+    <t>F59BC608BA522F8FF46F7D636B5E1E1B0DFD667DC3010BA49D1FC75CA79F0678</t>
+  </si>
+  <si>
+    <t>C6A205B041451F8D61DE789AF822856D4260DDAF710EDAE5D876057DE664BEA3</t>
+  </si>
+  <si>
+    <t>F5AA682C41BD6C2A6E0DCFF5A3B92B2B37285507F13471FD4D55C2DB4268C501</t>
+  </si>
+  <si>
+    <t>B9B306A4D571673D3CF24F1025624EB0BCD3744C38454EB99EE22EA89244CC38</t>
+  </si>
+  <si>
+    <t>E3B5385C798A9019AB506F63F5929E0F0107088F04FEA82333A43F447B2F6862</t>
+  </si>
+  <si>
+    <t>2D6A89B5AD2450F568783625D3164318B63A94AF13E53222710593212E596649</t>
+  </si>
+  <si>
+    <t>E6534B3BED686B7DA2BDD053C216B12AC042A8C9DA49B7E30E488489541211BE</t>
+  </si>
+  <si>
+    <t>44AF5AFBF7803E21CAF850CCC71E0E4B19180EA31944EFB7E521CD01164A71C2</t>
+  </si>
+  <si>
+    <t>F525AC43FA485E9340D403DEDAE6E8EADDCE873C73159EBA4EB7ED3585CD4E77</t>
+  </si>
+  <si>
+    <t>5E5CCBB0427374A7FBFB0CF114A5AE858C01301D47EFF86C1E230CE2ACCFB472</t>
+  </si>
+  <si>
+    <t>B81CD227ADE0A0C15E0F53C535BA2082DA43A8F4479B4EEB2C1EFEBF84A4788C</t>
+  </si>
+  <si>
+    <t>56C44E15EF22D2F170015695D770BF01A0C6E2732DD7092E9C1B3FC58312A39A</t>
+  </si>
+  <si>
+    <t>F088C9A39FA9CE0E24290B2958C68A77DB44C8CE466E3F6C260366366494740B</t>
   </si>
 </sst>
 </file>
@@ -235,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -244,6 +382,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -571,51 +718,51 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -633,7 +780,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -643,18 +792,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -669,7 +818,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -679,18 +830,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -705,7 +856,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -715,18 +868,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -741,7 +894,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -751,18 +906,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -775,13 +930,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -803,16 +960,39 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -821,14 +1001,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -841,24 +1023,39 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>58</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -867,13 +1064,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -887,20 +1086,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -913,13 +1126,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="85.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -932,21 +1147,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
+      <c r="A2" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -959,13 +1188,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -979,20 +1210,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1005,14 +1250,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1025,20 +1272,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>75</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1067,15 +1328,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1088,13 +1349,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1108,20 +1371,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1134,14 +1427,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="85.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1154,20 +1449,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1333,32 +1658,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1389,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1400,16 +1725,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1440,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1451,17 +1776,17 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1476,7 +1801,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1502,16 +1827,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1526,7 +1851,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1543,10 +1868,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1554,17 +1879,17 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1579,7 +1904,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1589,18 +1916,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +1942,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1625,18 +1954,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/mahofmahof/evidence.xlsx
+++ b/mahofmahof/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="20"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="88">
   <si>
     <t>TxHash</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>3841FF81EAA9EAA672AE16FAC9E43AD5BED81D8E42B91788FC7C6A01D8C2319E</t>
-  </si>
-  <si>
-    <t>wasm.juno1stv6sk0mvku34fj2mqrlyru6683866n306mfv52tlugtl322zmks26kg7a/channel-89/gonballs</t>
   </si>
   <si>
     <t>france</t>
@@ -800,10 +797,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -838,10 +835,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -876,10 +873,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -914,10 +911,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -960,34 +957,34 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
         <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
         <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1023,23 +1020,23 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -1047,10 +1044,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1086,34 +1083,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1148,34 +1145,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1210,34 +1207,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1272,15 +1269,15 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
@@ -1288,15 +1285,15 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>30</v>
@@ -1371,50 +1368,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1426,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1449,31 +1446,31 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -1481,18 +1478,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1677,13 +1674,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1698,7 +1695,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1728,13 +1725,13 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1803,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1827,16 +1825,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1924,10 +1922,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1962,11 +1960,11 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mahofmahof/evidence.xlsx
+++ b/mahofmahof/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>TxHash</t>
   </si>
@@ -302,6 +302,18 @@
   </si>
   <si>
     <t>F088C9A39FA9CE0E24290B2958C68A77DB44C8CE466E3F6C260366366494740B</t>
+  </si>
+  <si>
+    <t>63C72C2B34FF907482997050C7C87A1E65A2308C5C895B1D9DF9470A3674EDD0</t>
+  </si>
+  <si>
+    <t>B3AE31C334892AAD882BE02E2DFBDE82F685EFC4425404D0A0F6350BD921D24A</t>
+  </si>
+  <si>
+    <t>734218E2AC1A0F7E91FC306BF729ECEC36CC69819E18D12E81EA1D7F5CAD3FC5</t>
+  </si>
+  <si>
+    <t>EA31E12D2B39908F31FD3CEE8C18951D6D2C1BD221D3493DA861AD7E7975EFDA</t>
   </si>
 </sst>
 </file>
@@ -1504,6 +1516,78 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="85" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1531,7 +1615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1565,74 +1649,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -1695,7 +1711,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/mahofmahof/evidence.xlsx
+++ b/mahofmahof/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="22"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -208,9 +208,6 @@
     <t>uptick_7000-2</t>
   </si>
   <si>
-    <t>1BABDAB50AA79B8E9131232AD6F50714B21482DA957EB5F9B6C10FE14DC07CE</t>
-  </si>
-  <si>
     <t>2E53A0E808F080E5D39F35E6F3D3147F34A20022568A9DC10235E36B8BABB5A2</t>
   </si>
   <si>
@@ -314,6 +311,9 @@
   </si>
   <si>
     <t>EA31E12D2B39908F31FD3CEE8C18951D6D2C1BD221D3493DA861AD7E7975EFDA</t>
+  </si>
+  <si>
+    <t>11BABDAB50AA79B8E9131232AD6F50714B21482DA957EB5F9B6C10FE14DC07CE</t>
   </si>
 </sst>
 </file>
@@ -941,8 +941,8 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,7 +993,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>51</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>51</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>51</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>51</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>51</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>30</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>51</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>51</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -1532,12 +1532,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1552,7 +1552,7 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -1568,12 +1568,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/mahofmahof/evidence.xlsx
+++ b/mahofmahof/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="13"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="93">
   <si>
     <t>TxHash</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>11BABDAB50AA79B8E9131232AD6F50714B21482DA957EB5F9B6C10FE14DC07CE</t>
+  </si>
+  <si>
+    <t>C1D961ECB37C47BA7500D399EC9AD5E99D38D72B6A0047BD190F33DF83977485</t>
   </si>
 </sst>
 </file>
@@ -941,7 +944,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1438,8 +1441,8 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,7 +1485,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>

--- a/mahofmahof/evidence.xlsx
+++ b/mahofmahof/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="20"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -32,23 +32,18 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="97">
   <si>
     <t>TxHash</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
@@ -317,13 +312,31 @@
   </si>
   <si>
     <t>C1D961ECB37C47BA7500D399EC9AD5E99D38D72B6A0047BD190F33DF83977485</t>
+  </si>
+  <si>
+    <t>06AF5AC4764296C66DD124B7B4560CBF69BF8726CDBCA76ADCE4F55AF3DB18E3</t>
+  </si>
+  <si>
+    <t>79DA8B8C06C65C42C642DDAF0BFFCBBEF27DEE5D0A50AD3CD1F8FEA3CBE60566</t>
+  </si>
+  <si>
+    <t>2D674225FC1A41F8A8E955BFE34AF4A73F86D5D1C3E127D6EDA5AC2B9A97F0D8</t>
+  </si>
+  <si>
+    <t>04395B39FCCACAB945B2A852183EF12F3A4CF95384F1683D66E123AD24BE3E9D</t>
+  </si>
+  <si>
+    <t>6274D716B2AAA9F28E9606DEFFD2E07608003ECAD2828AC605D5BAA155E924AF</t>
+  </si>
+  <si>
+    <t>5492D244359ED6B9851306E0B6A33F7D943C5B0977D02CF4267B6B5054E417FF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,8 +350,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,6 +368,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFC6C6C6"/>
       </patternFill>
     </fill>
   </fills>
@@ -385,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -403,6 +429,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -730,51 +762,51 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -804,18 +836,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -842,10 +874,48 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -861,7 +931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -869,7 +939,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,10 +950,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -899,162 +969,187 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="82.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="82.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1062,16 +1157,15 @@
         <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1079,12 +1173,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="82.85546875" bestFit="1" customWidth="1"/>
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="85.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1093,47 +1187,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>60</v>
+      <c r="A2" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>61</v>
+      <c r="A5" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1141,12 +1235,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="85.85546875" bestFit="1" customWidth="1"/>
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1155,28 +1249,90 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>65</v>
+      <c r="A2" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -1184,31 +1340,68 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="83.28515625" bestFit="1" customWidth="1"/>
+        <v>73</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1217,20 +1410,98 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="85.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -1238,192 +1509,31 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="83" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="84" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -1434,142 +1544,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="85.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="85" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="85" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="82.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>87</v>
       </c>
@@ -1584,18 +1580,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1605,27 +1603,29 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1639,12 +1639,81 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1674,32 +1743,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1730,27 +1799,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1781,27 +1850,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1833,27 +1902,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1885,27 +1954,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1933,18 +2002,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1971,18 +2040,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
